--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1875.112972950462</v>
+        <v>1824.899659681731</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.69225111188039</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.84140128588582</v>
+        <v>15.23250213508452</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.13212312446355</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1412.400000000004</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.73</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -923,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -934,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.361415491259855</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.90513640446556</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.56439651897804</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1156,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1170,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1184,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1198,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1212,13 +1157,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1226,13 +1171,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1240,13 +1185,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1254,13 +1199,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1268,15 +1213,99 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1379,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1390,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1401,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1412,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1434,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>106.2600000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1445,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8650000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1456,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>107.7250000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1467,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>111.9600000000008</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1478,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1489,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0599999999993</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1500,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1511,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1522,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1533,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999994</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1544,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1555,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1566,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1577,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1588,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1599,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>123.0900000000004</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1610,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>129.0600000000005</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1621,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>132.8750000000004</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1632,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>138.7450000000004</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1643,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>134.35</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1654,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>106.2600000000008</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1665,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>109.8650000000008</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -1676,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>107.7250000000008</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1687,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.9600000000008</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -1698,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>110.95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1709,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>123.0900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>129.0600000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1731,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>132.8750000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1742,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>138.7450000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1753,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>134.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1764,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>208.0599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1775,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1786,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>206.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1797,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1808,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>203.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.260000000000801</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -1866,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.865000000000805</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1877,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.72500000000079</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -1888,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9600000000008</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
@@ -1899,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -1910,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>23.09000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1921,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>29.06000000000046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1932,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>32.87500000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1943,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>38.74500000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1954,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>34.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1965,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.0599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1976,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.43499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1987,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>106.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1998,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.83999999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2009,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>103.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2067,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2078,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2089,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2100,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2111,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2122,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2133,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2144,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2155,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2166,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2177,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2188,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2199,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2210,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2276,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2287,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2298,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2309,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2320,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,7 +2390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2372,7 +2401,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2383,7 +2412,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2394,7 +2423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2405,7 +2434,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2416,7 +2445,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2427,7 +2456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2438,7 +2467,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2449,7 +2478,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2460,7 +2489,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2485,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2496,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2507,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2515,10 +2544,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2529,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2540,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2551,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2562,9 +2591,20 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
